--- a/Team-Data/2007-08/3-9-2007-08.xlsx
+++ b/Team-Data/2007-08/3-9-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -765,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>28</v>
@@ -795,7 +862,7 @@
         <v>12</v>
       </c>
       <c r="AU2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>26</v>
@@ -816,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>14</v>
@@ -1180,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
         <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>0.397</v>
+        <v>0.403</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,49 +1297,49 @@
         <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.351</v>
+        <v>0.348</v>
       </c>
       <c r="O5" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.746</v>
+        <v>0.744</v>
       </c>
       <c r="R5" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S5" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W5" t="n">
         <v>7.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
         <v>5.8</v>
@@ -1281,28 +1348,28 @@
         <v>21.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>22</v>
@@ -1323,10 +1390,10 @@
         <v>18</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1335,22 +1402,22 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,10 +1426,10 @@
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1575,7 @@
         <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1666,10 +1733,10 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1723,7 +1790,7 @@
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1878,13 +1945,13 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="n">
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.73</v>
+        <v>0.726</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J9" t="n">
         <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
@@ -1973,13 +2040,13 @@
         <v>0.373</v>
       </c>
       <c r="O9" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R9" t="n">
         <v>11.6</v>
@@ -1997,7 +2064,7 @@
         <v>11.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X9" t="n">
         <v>5.4</v>
@@ -2006,19 +2073,19 @@
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA9" t="n">
         <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,10 +2097,10 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>20</v>
@@ -2045,25 +2112,25 @@
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
         <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
         <v>14</v>
       </c>
       <c r="AS9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT9" t="n">
         <v>21</v>
@@ -2075,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ9" t="n">
         <v>16</v>
@@ -2090,10 +2157,10 @@
         <v>22</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>3.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2245,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>5</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2394,16 +2461,16 @@
         <v>5</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2439,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="AW11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
@@ -2457,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2597,7 +2664,7 @@
         <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2609,13 +2676,13 @@
         <v>18</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>27</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2791,10 +2858,10 @@
         <v>26</v>
       </c>
       <c r="AS13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU13" t="n">
         <v>15</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
         <v>44</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.698</v>
+        <v>0.71</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,7 +2935,7 @@
         <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.479</v>
@@ -2880,31 +2947,31 @@
         <v>20.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O14" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P14" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
         <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.199999999999999</v>
@@ -2913,22 +2980,22 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
         <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2952,10 +3019,10 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>10</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>20</v>
@@ -2976,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2994,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
         <v>28</v>
@@ -3173,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3346,7 +3413,7 @@
         <v>22</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>18</v>
@@ -3355,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" t="n">
-        <v>0.365</v>
+        <v>0.371</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.449</v>
@@ -3423,16 +3490,16 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q17" t="n">
         <v>0.742</v>
@@ -3441,16 +3508,16 @@
         <v>12.3</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U17" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
@@ -3459,7 +3526,7 @@
         <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z17" t="n">
         <v>21.4</v>
@@ -3471,25 +3538,25 @@
         <v>96</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.5</v>
+        <v>-6.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>14</v>
@@ -3504,10 +3571,10 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO17" t="n">
         <v>24</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>25</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3522,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AU17" t="n">
         <v>19</v>
@@ -3546,10 +3613,10 @@
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3677,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -3850,13 +3917,13 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3868,7 +3935,7 @@
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4032,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -4232,10 +4299,10 @@
         <v>16</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
         <v>10</v>
@@ -4277,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -4402,7 +4469,7 @@
         <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="n">
         <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>0.476</v>
+        <v>0.468</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
@@ -4521,16 +4588,16 @@
         <v>0.32</v>
       </c>
       <c r="O23" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P23" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.703</v>
+        <v>0.702</v>
       </c>
       <c r="R23" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S23" t="n">
         <v>29</v>
@@ -4539,7 +4606,7 @@
         <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
         <v>15</v>
@@ -4548,10 +4615,10 @@
         <v>8.6</v>
       </c>
       <c r="X23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4.8</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>4.7</v>
       </c>
       <c r="Z23" t="n">
         <v>19.8</v>
@@ -4560,16 +4627,16 @@
         <v>20.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4587,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
         <v>13</v>
@@ -4620,7 +4687,7 @@
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
@@ -4638,7 +4705,7 @@
         <v>21</v>
       </c>
       <c r="BB23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.651</v>
+        <v>0.645</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4694,13 +4761,13 @@
         <v>0.492</v>
       </c>
       <c r="L24" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O24" t="n">
         <v>18.5</v>
@@ -4709,46 +4776,46 @@
         <v>23.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S24" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T24" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U24" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="V24" t="n">
         <v>14.2</v>
       </c>
       <c r="W24" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X24" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Y24" t="n">
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.2</v>
+        <v>109.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>8</v>
@@ -4760,7 +4827,7 @@
         <v>8</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
@@ -4781,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -4793,16 +4860,16 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4811,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4969,7 +5036,7 @@
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
         <v>35</v>
       </c>
       <c r="G26" t="n">
-        <v>0.444</v>
+        <v>0.435</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
         <v>79.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M26" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O26" t="n">
         <v>22</v>
       </c>
       <c r="P26" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
         <v>10.4</v>
@@ -5088,13 +5155,13 @@
         <v>19</v>
       </c>
       <c r="V26" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W26" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y26" t="n">
         <v>5.6</v>
@@ -5103,16 +5170,16 @@
         <v>22.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,10 +5191,10 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -5151,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
         <v>22</v>
@@ -5160,7 +5227,7 @@
         <v>20</v>
       </c>
       <c r="AT26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
@@ -5169,7 +5236,7 @@
         <v>29</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="n">
         <v>43</v>
       </c>
       <c r="F27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" t="n">
-        <v>0.694</v>
+        <v>0.705</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J27" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L27" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M27" t="n">
         <v>20.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O27" t="n">
         <v>16.9</v>
@@ -5267,13 +5334,13 @@
         <v>41.6</v>
       </c>
       <c r="U27" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V27" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
@@ -5288,13 +5355,13 @@
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC27" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5306,16 +5373,16 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
         <v>6</v>
@@ -5333,7 +5400,7 @@
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
@@ -5345,7 +5412,7 @@
         <v>17</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV27" t="n">
         <v>5</v>
@@ -5366,10 +5433,10 @@
         <v>25</v>
       </c>
       <c r="BB27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" t="n">
-        <v>0.254</v>
+        <v>0.258</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,43 +5483,43 @@
         <v>37.7</v>
       </c>
       <c r="J28" t="n">
-        <v>84.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M28" t="n">
         <v>12</v>
       </c>
       <c r="N28" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S28" t="n">
         <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V28" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W28" t="n">
         <v>6.4</v>
@@ -5461,7 +5528,7 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
         <v>20.8</v>
@@ -5470,13 +5537,13 @@
         <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC28" t="n">
         <v>-7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,7 +5555,7 @@
         <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5506,19 +5573,19 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP28" t="n">
         <v>25</v>
       </c>
       <c r="AQ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR28" t="n">
         <v>11</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>12</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5542,7 +5609,7 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>0.548</v>
+        <v>0.541</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J29" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K29" t="n">
         <v>0.466</v>
@@ -5607,10 +5674,10 @@
         <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.406</v>
+        <v>0.407</v>
       </c>
       <c r="O29" t="n">
         <v>16.8</v>
@@ -5619,16 +5686,16 @@
         <v>20.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R29" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U29" t="n">
         <v>23.1</v>
@@ -5652,13 +5719,13 @@
         <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC29" t="n">
         <v>4</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,19 +5737,19 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5703,7 +5770,7 @@
         <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>27</v>
@@ -5721,7 +5788,7 @@
         <v>27</v>
       </c>
       <c r="AY29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ29" t="n">
         <v>8</v>
@@ -5730,7 +5797,7 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -5885,10 +5952,10 @@
         <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6052,7 +6119,7 @@
         <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6061,7 +6128,7 @@
         <v>20</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR31" t="n">
         <v>5</v>
@@ -6079,10 +6146,10 @@
         <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
@@ -6094,7 +6161,7 @@
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-9-2007-08</t>
+          <t>2008-03-09</t>
         </is>
       </c>
     </row>
